--- a/biology/Zoologie/Ichthyophis_bannanicus/Ichthyophis_bannanicus.xlsx
+++ b/biology/Zoologie/Ichthyophis_bannanicus/Ichthyophis_bannanicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ichthyophis bannanicus est une espèce de gymnophiones de la famille des Ichthyophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ichthyophis bannanicus est une espèce de gymnophiones de la famille des Ichthyophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le nord du Viêt Nam et dans le sud de la Chine au Guangdong, au Guangxi et au Yunnan[1].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le nord du Viêt Nam et dans le sud de la Chine au Guangdong, au Guangxi et au Yunnan.  
 Sa présence en Birmanie et au Laos est incertaine.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Yang, 1984 : A new species of Ichthyophis - I. bannanica. Acta Herpetologica Sinica, New Series, Chengdu, vol. 3, no 2, p. 73-76.</t>
         </is>
